--- a/PRODUTOS/Perfumaria/Perfumaria - Higiene infantil.xlsx
+++ b/PRODUTOS/Perfumaria/Perfumaria - Higiene infantil.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Toalhas Umedecidas Meu Nenê 140unidades</t>
+          <t>Talco Baby Popyy Patinho 100gr</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d5710fe-a791-4d4b-a6bd-fc64977ed444.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ceabfa1-5643-46a7-88c1-e7e6b09c5fe5.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896010172362</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sabonete Johnsons 80g Amendoa Hidrat</t>
+          <t>Sabonete Suave Huggies 75g Cha De Camomila</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8eaff4fb-88fc-4269-9406-03e894689a90.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44ff71de-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896018700789</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Toalhas Umedecidas Marigold Baby Premium Azul 120 Unidades</t>
+          <t>Lenços Umedecidos Neve Supreme 48un</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/95825132-d18d-43b0-9169-6f3b12ac57a6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a0d6f89-3385-4e9a-93e4-0ece358a67f9.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891172523496</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hastes Flexiveis Cotton Line C/75un</t>
+          <t>Condicionador Johnsons 200ml Claros Camomila</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5dc9a40a-6b6a-429d-b347-5f172560834f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42c9a403-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891010030476</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sabonete Johnsons 80g Erva Doce</t>
+          <t>Toalha Umed Higgies One&amp;done 48un</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad73666-c148-4850-8164-bd44baed460a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b416567b-15dc-479d-b9bb-3094b8a5cc70.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896018703636</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sabonete Dove Baby Hidrat 75gr Enriquecida</t>
+          <t>Sabonete Johnsons 80g Erva Doce</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/955b820f-a11f-4fd7-893d-c2b802dcfba9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad73666-c148-4850-8164-bd44baed460a.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891010247454</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sabonete Johnson 80gr Lavanda</t>
+          <t>Shampoo Johnson 200ml Cab.cacheados</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61921025-cb4c-4868-85a6-04b33231f722.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/243c463f-2785-4a2e-9f35-21c3398db381.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891010030391</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sabonete Johnsons 80g Romã</t>
+          <t>Sabonete Liq Dove Baby 180ml Enriquecid Refil</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/90f6e54c-ab7a-427f-8b0f-f40541301bd8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d03f3a94-1d3d-4918-ae96-5b1e73a9019e.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891150025981</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sabonete Baby Johnsons 80g Glicerinado</t>
+          <t>Toalha Umed Neve Dermacare 48un</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b25f639a-810a-49b4-b36e-c6d7e5982d32.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6eca4f0-436f-44a2-ae68-c9c47d414594.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891172523489</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cotonetes Johnson 75 Unidades</t>
+          <t>Lencos Umedecidos Huggie Max Clean 48un</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fee5159f-41e8-4c07-945b-26467add10ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9632e866-820f-4ea9-8de6-35d8cba23016.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896018700659</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sabonete Johnson 80gr Rosas Sandalo</t>
+          <t>Sabonete Granado Bebê 90gr Erva Doce</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3e9fb01-7ca9-463b-a57d-77eadad8fa77.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3abe7bc-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896512911865</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cotonetes Johnsons 150 Unidades</t>
+          <t>Kit Muriel Baby Shampoo+condicionador 100ml Menino</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93ca9010-c1b3-42e6-be33-91dadb1ee13b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cab0f16f-8d1c-40c5-ad2e-4d5e07070043.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896279112727</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sabonete Granado Bebê 90gr Erva Doce</t>
+          <t>Sabonete Liquido Dove Baby 200ml Hidratação Glicerinada</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e3abe7bc-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e56000c-3693-4b03-a2b0-82e213da6531.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891150065291</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sabonete Suave Huggies 75g Ex Suave</t>
+          <t>Toalha Umed Huggies Puro E Natural 48un</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27fd7fa4-d642-4719-8647-9c97d585fae8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14fc838b-1575-4b9f-9d42-811b10105d13.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896007547913</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Algodão Apolo Disco 35gr</t>
+          <t>Lenços Umed Personalidade 100un</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9eb6088-11ee-4ff6-acb4-1aaa666ba815.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01fb2dd5-5b4d-42fa-a329-400416ac764f.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7898039563732</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Algodão Bola Apolo 50g</t>
+          <t>Kit Muriel Baby Sh+cond 100ml Menina</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/196c9d9f-97c9-4963-b299-d4f5ca4f0f37.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c16d8e0f-9fc6-4a4e-ac93-89caed983518.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896279112734</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lenços Umed Personalidade 100un</t>
+          <t>Agua De Colonia Muriel Baby 100ml Menino</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/01fb2dd5-5b4d-42fa-a329-400416ac764f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c55b118-79c0-42bd-9ab6-e5b5fb3218f5.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896279102490</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Toalha Umed Neve Dermacare 48un</t>
+          <t>Sabonete Liq Johnson 200ml Glicerinado</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c6eca4f0-436f-44a2-ae68-c9c47d414594.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44e4f520-a85a-48ca-a380-0746748846fa.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891010005757</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Toalhas Umedecidas Marigold Baby Premium Sensitive 120 Unidades</t>
+          <t>Lencos Kleenex Folha Tripla C/ 10</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c063482b-941b-4992-9d03-2febb24eddb5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93a45881-906d-4303-a112-6b2e4789dcab.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891172171666</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Algodão Bola Cotton Kids 50g</t>
+          <t>Sh Johnson 200ml Tradicional</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6f90b35-ec7b-4be0-9cb7-b2d94f963f3d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/307a9ff4-1d61-4b37-ac75-800d0aa7232a.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891010872366</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lencos Umedecidos Huggie Max Clean 48un</t>
+          <t>Sabonete Baby Johnsons 80g Glicerinado</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9632e866-820f-4ea9-8de6-35d8cba23016.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b25f639a-810a-49b4-b36e-c6d7e5982d32.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891010035976</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cotonetes Johnsons Pote C/ 150</t>
+          <t>Shampoo Palmolive Kids 350ml Cacheados</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3f27beb5-e012-428a-a7fb-87e0ee01cd1f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f8004ce-6490-438c-bbb7-6b0387ea18b7.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891024174180</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Lenços Umedecidos Pampers C/48un Fresh Clear</t>
+          <t>Pomada Hipoglos Amendoas 40g</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 34,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af8980a9-ef6d-45f8-a34a-5c7f2cc03734.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a33ef6c-696b-4b70-87c0-2c0885e15dad.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891010249953</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Algodão Hidrof Apolo Multiuso 50g</t>
+          <t>Sh Huggies 200ml Ex Suave</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9682445e-7476-4810-bf1d-e0a2d75c6b92.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fea5dc99-c7ee-46cc-89ee-76fdf61c1388.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896018710467</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Toalhas Umedecidas Marigold Baby Premium Rosa 120 Unidades</t>
+          <t>Talco Infantil Baby Poppy 200g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40418aee-1cd5-414e-9b57-98a4c6b26aef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7fe3fd9a-faf1-40bd-8535-d94ab42623e9.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896010172188</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lencos Kleenex Folha Tripla C/ 10</t>
+          <t>Sabonete Liq Huggies 200ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93a45881-906d-4303-a112-6b2e4789dcab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd14c0cf-f47c-4c1d-a420-db4a1325dcdf.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896018700338</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sabonete Liq Dove Baby 180ml Enriquecid Refil</t>
+          <t>Colonia Huggies 100ml Ex Suave</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d03f3a94-1d3d-4918-ae96-5b1e73a9019e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6869b0da-8dae-45f2-876e-e91ec5a92870.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7896018700314</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Toalha Umed Huggies Puro E Natural 48un</t>
+          <t>Sh Palmolive 350ml Kids</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/14fc838b-1575-4b9f-9d42-811b10105d13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9c01f3f-94ba-4c0d-9613-c380ec72b91a.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7891024174135</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sh Palmolive 350ml Kids</t>
+          <t>Condicionador Johnsons 200ml Baby</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c9c01f3f-94ba-4c0d-9613-c380ec72b91a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/90ec7203-d9c2-4e50-806a-0b861ffb9405.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7891010047184</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Toalha Umed Higgies One&amp;done 48un</t>
+          <t>Algodão Apolo 50gr</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 5,29</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b416567b-15dc-479d-b9bb-3094b8a5cc70.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4976bc33-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7896224410120</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sh Johnson 200ml Tradicional</t>
+          <t>Algodão Bola Apolo 50g</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/307a9ff4-1d61-4b37-ac75-800d0aa7232a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/196c9d9f-97c9-4963-b299-d4f5ca4f0f37.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896224410304</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Shampoo Infantil Seda Juntinhostiana 300ml Crespos Encantados</t>
+          <t>Algodão Apolo Disco 35gr</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1fc9cde1-83e4-4c90-8ae3-a0c216792612.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9eb6088-11ee-4ff6-acb4-1aaa666ba815.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896224410120</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sabonete Liq Johnson 200ml Glicerinado</t>
+          <t>Algodão Hidrof Apolo Multiuso 50g</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44e4f520-a85a-48ca-a380-0746748846fa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9682445e-7476-4810-bf1d-e0a2d75c6b92.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896224410304</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Condicionador Infantil Seda Moama 300ml Cachos Encantados</t>
+          <t>Condicionador Palmolive 350ml Kids</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1d1a1195-27dd-4144-8513-e8b44cee7d3f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93c41551-ec4a-442e-a1b4-3ed8df6c8b57.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7891024174135</t>
         </is>
       </c>
     </row>
@@ -1379,692 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Algodão Apolo 50gr</t>
+          <t>Sabonete Liq Huggies 200ml Camomila</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 5,29</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4976bc33-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Sabonete Liq Huggies 200ml Camomila</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a22bc3be-1627-4d8c-b6e9-39f46d20735d.jpg</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Kit Muriel Baby Shampoo+condicionador 100ml Menino</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cab0f16f-8d1c-40c5-ad2e-4d5e07070043.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Shampoo Johnson 200ml Cab.cacheados</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/243c463f-2785-4a2e-9f35-21c3398db381.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Condicionador Palmolive 350ml Kids</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/93c41551-ec4a-442e-a1b4-3ed8df6c8b57.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Lenços Umedecidos Neve Supreme 48un</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6a0d6f89-3385-4e9a-93e4-0ece358a67f9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Sabonete Liq Huggies 200ml</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>R$ 23,99</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd14c0cf-f47c-4c1d-a420-db4a1325dcdf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Condicionador Johnsons 200ml Baby</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/90ec7203-d9c2-4e50-806a-0b861ffb9405.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Sabonete Liquido Dove Baby 200ml Hidratação Glicerinada</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1e56000c-3693-4b03-a2b0-82e213da6531.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sh Huggies 200ml Ex Suave</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fea5dc99-c7ee-46cc-89ee-76fdf61c1388.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Shampoo Palmolive Kids 350ml Cacheados</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f8004ce-6490-438c-bbb7-6b0387ea18b7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Talco Baby Popyy Patinho 100gr</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5ceabfa1-5643-46a7-88c1-e7e6b09c5fe5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Kit Muriel Baby Sh+cond 100ml Menina</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c16d8e0f-9fc6-4a4e-ac93-89caed983518.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Agua De Colonia Muriel Baby 100ml Menino</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c55b118-79c0-42bd-9ab6-e5b5fb3218f5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Colonia Huggies 100ml Ex Suave</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6869b0da-8dae-45f2-876e-e91ec5a92870.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Condicionador Johnsons 200ml Claros Camomila</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42c9a403-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Talco Infantil Baby Poppy 200g</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7fe3fd9a-faf1-40bd-8535-d94ab42623e9.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Pomada Hipoglos Amendoas 40g</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5a33ef6c-696b-4b70-87c0-2c0885e15dad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Condicionador Infantil Tiana 300ml Crespos Encantados</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 13,99</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/36ff59cb-8b34-45de-8de5-031001edf9e2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Mamadeira Sup Ev Silic 300 Ml Azul Lillo</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5fc84546-bdd2-4b47-9e84-3f435569a675.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Bico Mamadeira Lillo Natuform Macio</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>R$ 14,93</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cda497ee-e8ad-48ef-96fc-a53018fa69da.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Mamadeira Evolut Lilo 300ml Rosa Divert</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d07cb58a-f6f7-436a-b9a6-8ed90ca7f229.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Bico De Mamadeira Ortopédico Lilo Tamanho 2</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>R$ 22,99</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/694ddaec-faf8-4e44-9aa7-d559904c3478.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Mamadeira Evolution Lilo 240ml Primeiros Passos Menina</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e78cfbfb-a087-4c20-9ae7-6366c23a57e8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Mamadeira Anticólica Lilo C Alça 300ml Azul</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>R$ 49,99</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8924f17c-9f1d-4899-9db4-0b604ac0f598.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Higiene infantil</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Mamadeira Lilo Sonho Orto 240ml Rosa</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2ff535ef-fe05-4ae5-9d62-f311d9392ed0.jpg</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896018700741</t>
         </is>
       </c>
     </row>
